--- a/biology/Botanique/Marcgravia/Marcgravia.xlsx
+++ b/biology/Botanique/Marcgravia/Marcgravia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Marcgravia est un genre de plantes à fleurs dicotylédones de la famille des Marcgraviaceae. Originaires d'Amérique tropicale, les espèces sont des arbrisseaux grimpants parasites des arbres. Leurs inflorescences ont une forme originale adaptées à la pollinisation par des chauves-souris ou des oiseaux-mouches, qui s'abreuvent dans de petites urnes accrochées sous les fleurs disposées en étoile, le tout suspendu au bout d'une tige.
 </t>
@@ -511,7 +523,9 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont des arbrisseaux parasites à tiges et rameaux radicants, comme le lierre, aux feuilles de forme variable selon l'âge, distiques, sessiles, aux fleurs groupées en ombelles ou en épis à fleur centrale avortée, à calice à 4 à 6 sépales inégaux, à corolle calyptriforme, à étamines en nombre indéterminé, à ovaire subglobuleux, à fruit globuleux, coriace, à 10 loges, déhiscent contenant de nombreuses petites graines.
 </t>
@@ -542,10 +556,12 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre a été décrit en 1753 par le naturaliste suédois Carl von Linné (1707-1778) et rend hommage au naturaliste allemand Georg Markgraf (1610-1644), considéré comme l'explorateur du Brésil le plus important du XVIIe siècle.
-En classification phylogénétique APG III (2009)[1], comme en classification classique de Cronquist (1981)[2], il est assigné à la famille des Marcgraviaceae.
+En classification phylogénétique APG III (2009), comme en classification classique de Cronquist (1981), il est assigné à la famille des Marcgraviaceae.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon The Plant List            (10 décembre 2017)[3] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon The Plant List            (10 décembre 2017) :
 Marcgravia atropunctata de Roon
 Marcgravia brownei (Triana &amp; Planch.) Krug &amp; Urb.
 Marcgravia caudata Triana &amp; Planch.
@@ -640,7 +658,7 @@
 Marcgravia yukunarum P. Picca &amp; Gir.-Cañas
 Marcgravia zonopunctata S. Dressler
 Espèces et synonymes selon Tropicos
-Selon Tropicos                                           (10 décembre 2017)[4] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (10 décembre 2017) (Attention liste brute contenant possiblement des synonymes) :
 Marcgravia affinis Hemsl.
 Marcgravia ampulligera Woodson
 Marcgravia atropunctata de Roon
